--- a/Data/c01-1-hist.xlsx
+++ b/Data/c01-1-hist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="201">
   <si>
     <t xml:space="preserve">C1.1 Credit and Charge Cards – Original Series – Aggregate Data </t>
   </si>
@@ -636,7 +636,13 @@
     <t>`</t>
   </si>
   <si>
-    <t>07-Sep-2022</t>
+    <t>Number of overseas purchases: device present; Value of overseas purchases: device present</t>
+  </si>
+  <si>
+    <t>Reporting change: Reporting change by a non-bank decreased the number and value of device present overseas purchases.</t>
+  </si>
+  <si>
+    <t>07-Oct-2022</t>
   </si>
 </sst>
 </file>
@@ -677,12 +683,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -706,11 +718,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -728,7 +740,1159 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="717">
+  <dxfs count="813">
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="9"/>
@@ -9609,10 +10773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO462"/>
+  <dimension ref="A1:AO463"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B372" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B441" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G26" sqref="G26"/>
       <selection pane="topRight" activeCell="G26" sqref="G26"/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
@@ -10388,124 +11552,124 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="V10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="W10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="X10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Y10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Z10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AB10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AC10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AD10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AG10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AH10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AI10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AJ10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AO10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
@@ -22793,7 +23957,7 @@
         <v>2982.1480000000001</v>
       </c>
       <c r="G216" s="11">
-        <v>827.254683739999</v>
+        <v>827.25468374000002</v>
       </c>
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
@@ -23106,7 +24270,7 @@
       </c>
       <c r="W220" s="11"/>
       <c r="X220" s="11">
-        <v>21238.723283275998</v>
+        <v>21238.7232832759</v>
       </c>
       <c r="Y220" s="11">
         <v>57774.360892999997</v>
@@ -24924,7 +26088,7 @@
         <v>13157.88392479</v>
       </c>
       <c r="W245" s="11">
-        <v>19720.479478339101</v>
+        <v>19720.479478339199</v>
       </c>
       <c r="X245" s="11">
         <v>27746.6420191943</v>
@@ -25654,7 +26818,7 @@
         <v>12999.393060756</v>
       </c>
       <c r="W255" s="11">
-        <v>21709.508089304301</v>
+        <v>21709.5080893042</v>
       </c>
       <c r="X255" s="11">
         <v>30629.516622677402</v>
@@ -25730,7 +26894,7 @@
         <v>22144.205360405202</v>
       </c>
       <c r="X256" s="11">
-        <v>30815.459216637599</v>
+        <v>30815.459216637501</v>
       </c>
       <c r="Y256" s="11">
         <v>85747.328158999997</v>
@@ -26356,7 +27520,7 @@
         <v>2988.8036666666699</v>
       </c>
       <c r="G265" s="11">
-        <v>954.58424952666599</v>
+        <v>954.58424952666701</v>
       </c>
       <c r="H265" s="11"/>
       <c r="I265" s="11"/>
@@ -29260,7 +30424,7 @@
         <v>49818.712952401402</v>
       </c>
       <c r="AC299" s="11">
-        <v>6501.0145046800299</v>
+        <v>6501.0145046800199</v>
       </c>
       <c r="AD299" s="11">
         <v>84143.656000547795</v>
@@ -29355,7 +30519,7 @@
         <v>18083.952415389998</v>
       </c>
       <c r="W300" s="11">
-        <v>32239.213952427701</v>
+        <v>32239.213952427799</v>
       </c>
       <c r="X300" s="11">
         <v>43953.88633211</v>
@@ -29621,7 +30785,7 @@
         <v>89728.681299999997</v>
       </c>
       <c r="AM302" s="11">
-        <v>11499.0379704201</v>
+        <v>11499.03797042</v>
       </c>
       <c r="AN302" s="11">
         <v>28150.080600000001</v>
@@ -29900,7 +31064,7 @@
         <v>119342.587</v>
       </c>
       <c r="O305" s="11">
-        <v>17409.8122687545</v>
+        <v>17409.812268754398</v>
       </c>
       <c r="P305" s="11">
         <v>5392.183</v>
@@ -30610,13 +31774,13 @@
         <v>141474.75599999999</v>
       </c>
       <c r="AA311" s="11">
-        <v>19460.321473380001</v>
+        <v>19460.3214733801</v>
       </c>
       <c r="AB311" s="11">
         <v>47846.129000000001</v>
       </c>
       <c r="AC311" s="11">
-        <v>6548.0765549400103</v>
+        <v>6548.0765549400203</v>
       </c>
       <c r="AD311" s="11">
         <v>88504.316000000006</v>
@@ -30810,7 +31974,7 @@
         <v>4529.4719999999998</v>
       </c>
       <c r="Q313" s="11">
-        <v>797.41579423958899</v>
+        <v>797.41579423958797</v>
       </c>
       <c r="R313" s="11"/>
       <c r="S313" s="11"/>
@@ -30842,7 +32006,7 @@
         <v>36093.129999999997</v>
       </c>
       <c r="AC313" s="11">
-        <v>5260.2484923599905</v>
+        <v>5260.2484923600005</v>
       </c>
       <c r="AD313" s="11">
         <v>70334.298899999994</v>
@@ -31238,7 +32402,7 @@
         <v>2157.2136666666702</v>
       </c>
       <c r="I317" s="11">
-        <v>898.21505597666703</v>
+        <v>898.21505597666601</v>
       </c>
       <c r="J317" s="11">
         <v>231.67699999999999</v>
@@ -31627,7 +32791,7 @@
         <v>122679.807</v>
       </c>
       <c r="AA320" s="11">
-        <v>17805.2014671701</v>
+        <v>17805.201467170002</v>
       </c>
       <c r="AB320" s="11">
         <v>33292.031461575098</v>
@@ -32672,7 +33836,7 @@
         <v>97100.350999999995</v>
       </c>
       <c r="AM329" s="11">
-        <v>13429.234624049999</v>
+        <v>13429.234624050099</v>
       </c>
       <c r="AN329" s="11">
         <v>29152.415000000001</v>
@@ -34238,7 +35402,7 @@
         <v>99862.535796563694</v>
       </c>
       <c r="AE343" s="11">
-        <v>13436.24841878</v>
+        <v>13436.2484187801</v>
       </c>
       <c r="AF343" s="11">
         <v>4328.8706000000002</v>
@@ -34622,13 +35786,13 @@
         <v>2037.20066666667</v>
       </c>
       <c r="G347" s="11">
-        <v>757.05969607333395</v>
+        <v>757.05969607333304</v>
       </c>
       <c r="H347" s="11">
         <v>1839.32766666667</v>
       </c>
       <c r="I347" s="11">
-        <v>707.87386850333405</v>
+        <v>707.87386850333303</v>
       </c>
       <c r="J347" s="11">
         <v>197.87299999999999</v>
@@ -34892,7 +36056,7 @@
         <v>20458.145732190002</v>
       </c>
       <c r="W349" s="11">
-        <v>35876.455329651697</v>
+        <v>35876.455329651602</v>
       </c>
       <c r="X349" s="11">
         <v>50002.128229244598</v>
@@ -34910,7 +36074,7 @@
         <v>33648.404531558801</v>
       </c>
       <c r="AC349" s="11">
-        <v>5748.9516528265704</v>
+        <v>5748.9516528265804</v>
       </c>
       <c r="AD349" s="11">
         <v>95191.026818441198</v>
@@ -36611,7 +37775,7 @@
         <v>113129.47</v>
       </c>
       <c r="AE364" s="11">
-        <v>14201.862293050101</v>
+        <v>14201.862293050201</v>
       </c>
       <c r="AF364" s="11">
         <v>5293.1869999999999</v>
@@ -36825,7 +37989,7 @@
         <v>162088.274</v>
       </c>
       <c r="AA366" s="11">
-        <v>21705.746408340099</v>
+        <v>21705.746408340001</v>
       </c>
       <c r="AB366" s="11">
         <v>40945.373</v>
@@ -38435,7 +39599,7 @@
         <v>144540.82999999999</v>
       </c>
       <c r="AM380" s="11">
-        <v>15698.05951386</v>
+        <v>15698.0595138601</v>
       </c>
       <c r="AN380" s="11">
         <v>37058.148999999998</v>
@@ -39412,7 +40576,7 @@
         <v>26567.678749179999</v>
       </c>
       <c r="W389" s="11">
-        <v>32907.218316313498</v>
+        <v>32907.218316313403</v>
       </c>
       <c r="X389" s="11">
         <v>52221.59747475</v>
@@ -40206,7 +41370,7 @@
         <v>32874.588509879897</v>
       </c>
       <c r="X396" s="11">
-        <v>51487.8410433561</v>
+        <v>51487.841043356202</v>
       </c>
       <c r="Y396" s="11">
         <v>151459.16616488999</v>
@@ -40215,7 +41379,7 @@
         <v>215933.541</v>
       </c>
       <c r="AA396" s="11">
-        <v>23825.324078640198</v>
+        <v>23825.3240786401</v>
       </c>
       <c r="AB396" s="11">
         <v>47801.557999999997</v>
@@ -40227,7 +41391,7 @@
         <v>155676.24</v>
       </c>
       <c r="AE396" s="11">
-        <v>15832.1377519002</v>
+        <v>15832.1377519001</v>
       </c>
       <c r="AF396" s="11">
         <v>12455.743</v>
@@ -41373,7 +42537,7 @@
         <v>195032.33</v>
       </c>
       <c r="AM406" s="11">
-        <v>18618.366959020099</v>
+        <v>18618.366959020001</v>
       </c>
       <c r="AN406" s="11">
         <v>51891.451000000001</v>
@@ -48320,6 +49484,131 @@
       </c>
       <c r="AO462" s="11">
         <v>11902.589810240001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A463" s="10">
+        <v>44804</v>
+      </c>
+      <c r="B463" s="11">
+        <v>13172.637000000001</v>
+      </c>
+      <c r="C463" s="11">
+        <v>17509.813999999998</v>
+      </c>
+      <c r="D463" s="11">
+        <v>16049.710999999999</v>
+      </c>
+      <c r="E463" s="11">
+        <v>1460.1030000000001</v>
+      </c>
+      <c r="F463" s="11">
+        <v>1202.1949999999999</v>
+      </c>
+      <c r="G463" s="11">
+        <v>459.33943992001201</v>
+      </c>
+      <c r="H463" s="11">
+        <v>1110.5989999999999</v>
+      </c>
+      <c r="I463" s="11">
+        <v>428.92692035001102</v>
+      </c>
+      <c r="J463" s="11">
+        <v>91.596000000000004</v>
+      </c>
+      <c r="K463" s="11">
+        <v>30.412519570000899</v>
+      </c>
+      <c r="L463" s="11">
+        <v>302580.94099999999</v>
+      </c>
+      <c r="M463" s="11">
+        <v>33739.954739210101</v>
+      </c>
+      <c r="N463" s="11">
+        <v>290629.05699999997</v>
+      </c>
+      <c r="O463" s="11">
+        <v>31818.5386784701</v>
+      </c>
+      <c r="P463" s="11">
+        <v>11951.884</v>
+      </c>
+      <c r="Q463" s="11">
+        <v>1921.4160607399999</v>
+      </c>
+      <c r="R463" s="11">
+        <v>5000.3429999999998</v>
+      </c>
+      <c r="S463" s="11">
+        <v>628.79899167999997</v>
+      </c>
+      <c r="T463" s="11">
+        <v>303783.136</v>
+      </c>
+      <c r="U463" s="11">
+        <v>34199.294179130098</v>
+      </c>
+      <c r="V463" s="11">
+        <v>34266.7387234505</v>
+      </c>
+      <c r="W463" s="11">
+        <v>17838.2828514387</v>
+      </c>
+      <c r="X463" s="11">
+        <v>38296.066810370001</v>
+      </c>
+      <c r="Y463" s="11">
+        <v>127040.05113738999</v>
+      </c>
+      <c r="Z463" s="11">
+        <v>226436.98</v>
+      </c>
+      <c r="AA463" s="11">
+        <v>26670.639573529999</v>
+      </c>
+      <c r="AB463" s="11">
+        <v>45894.512999999999</v>
+      </c>
+      <c r="AC463" s="11">
+        <v>8984.7162642300009</v>
+      </c>
+      <c r="AD463" s="11">
+        <v>172485.057</v>
+      </c>
+      <c r="AE463" s="11">
+        <v>16657.603655300001</v>
+      </c>
+      <c r="AF463" s="11">
+        <v>8057.41</v>
+      </c>
+      <c r="AG463" s="11">
+        <v>1028.3196539999999</v>
+      </c>
+      <c r="AH463" s="11">
+        <v>5072.21</v>
+      </c>
+      <c r="AI463" s="11">
+        <v>412.76624315999999</v>
+      </c>
+      <c r="AJ463" s="11">
+        <v>2985.2</v>
+      </c>
+      <c r="AK463" s="11">
+        <v>615.55341083999997</v>
+      </c>
+      <c r="AL463" s="11">
+        <v>169934.55799999999</v>
+      </c>
+      <c r="AM463" s="11">
+        <v>12916.1417234</v>
+      </c>
+      <c r="AN463" s="11">
+        <v>56502.421999999999</v>
+      </c>
+      <c r="AO463" s="11">
+        <v>13754.497850129999</v>
       </c>
     </row>
   </sheetData>
@@ -48445,466 +49734,481 @@
     <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="A23:XFD1048576 D1:XFD22">
-    <cfRule type="expression" dxfId="716" priority="113">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="715" priority="114">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="714" priority="115">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="713" priority="116">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="712" priority="117">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="711" priority="118">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="710" priority="119">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="709" priority="120">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="708" priority="121">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="707" priority="122">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="706" priority="123">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="705" priority="124">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="704" priority="125">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="703" priority="126">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="702" priority="127">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="701" priority="128">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="700" priority="129">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="699" priority="130">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="698" priority="131">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="697" priority="132">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="696" priority="133">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="695" priority="134">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="694" priority="135">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="693" priority="136">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="692" priority="137">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="691" priority="138">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="690" priority="139">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="689" priority="140">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="688" priority="141">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="687" priority="142">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="686" priority="143">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="685" priority="144">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="684" priority="145">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="683" priority="146">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="682" priority="147">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="681" priority="148">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="680" priority="149">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="679" priority="150">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="678" priority="151">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="677" priority="152">
+    <cfRule type="expression" dxfId="812" priority="118">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="811" priority="119">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="810" priority="120">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="809" priority="121">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="808" priority="122">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="807" priority="123">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="806" priority="124">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="805" priority="125">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="804" priority="126">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="803" priority="127">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="802" priority="128">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="801" priority="129">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="800" priority="130">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="799" priority="131">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="798" priority="132">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="797" priority="133">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="796" priority="134">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="795" priority="135">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="794" priority="136">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="793" priority="137">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="792" priority="138">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="791" priority="139">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="790" priority="140">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="789" priority="141">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="788" priority="142">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="787" priority="143">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="786" priority="144">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="785" priority="145">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="784" priority="146">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="783" priority="147">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="782" priority="148">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="781" priority="149">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="780" priority="150">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="779" priority="151">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="778" priority="152">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="777" priority="153">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="776" priority="154">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="775" priority="155">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="774" priority="156">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="773" priority="157">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C22">
-    <cfRule type="expression" dxfId="676" priority="84">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="675" priority="85">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="674" priority="86">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="673" priority="87">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="672" priority="88">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="671" priority="89">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="670" priority="90">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="669" priority="91">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="668" priority="92">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="667" priority="93">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="666" priority="94">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="665" priority="95">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="664" priority="96">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="663" priority="97">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="662" priority="98">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="661" priority="99">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="660" priority="100">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="659" priority="101">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="658" priority="102">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="657" priority="103">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="656" priority="104">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="655" priority="105">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="654" priority="106">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="653" priority="107">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="652" priority="108">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="651" priority="109">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="650" priority="110">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="649" priority="111">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="648" priority="112">
+    <cfRule type="expression" dxfId="772" priority="89">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="771" priority="90">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="770" priority="91">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="769" priority="92">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="768" priority="93">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="767" priority="94">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="766" priority="95">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="765" priority="96">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="764" priority="97">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="763" priority="98">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="762" priority="99">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="761" priority="100">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="760" priority="101">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="759" priority="102">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="758" priority="103">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="757" priority="104">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="756" priority="105">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="755" priority="106">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="754" priority="107">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="753" priority="108">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="752" priority="109">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="751" priority="110">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="750" priority="111">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="749" priority="112">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="748" priority="113">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="747" priority="114">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="746" priority="115">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="745" priority="116">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="744" priority="117">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="647" priority="10">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="646" priority="11">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="645" priority="12">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="644" priority="13">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="643" priority="14">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="642" priority="15">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="641" priority="16">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="640" priority="17">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="639" priority="18">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="638" priority="19">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="637" priority="20">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="636" priority="21">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="635" priority="22">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="634" priority="23">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="633" priority="24">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="632" priority="25">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="631" priority="26">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="630" priority="27">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="629" priority="28">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="628" priority="29">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="627" priority="30">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="626" priority="31">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="625" priority="32">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="624" priority="33">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="623" priority="34">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="622" priority="35">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="621" priority="36">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="620" priority="37">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="619" priority="38">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="618" priority="39">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="617" priority="40">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="616" priority="41">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="615" priority="42">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="614" priority="43">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="613" priority="44">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="612" priority="45">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="611" priority="46">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="610" priority="47">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="609" priority="48">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="608" priority="49">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="607" priority="50">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="606" priority="51">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="605" priority="52">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="604" priority="53">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="603" priority="54">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="602" priority="55">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="601" priority="56">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="600" priority="57">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="599" priority="58">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="598" priority="59">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="597" priority="60">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="596" priority="61">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="595" priority="62">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="594" priority="63">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="593" priority="64">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="592" priority="65">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="591" priority="66">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="590" priority="67">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="589" priority="68">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="588" priority="69">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="587" priority="70">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="586" priority="71">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="585" priority="72">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="584" priority="73">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="74">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="582" priority="75">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="76">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="580" priority="77">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="78">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="578" priority="79">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="80">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="576" priority="81">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="575" priority="82">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="574" priority="83">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="573" priority="4">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="572" priority="5">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="571" priority="6">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="570" priority="7">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="569" priority="8">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="568" priority="9">
+    <cfRule type="expression" dxfId="743" priority="15">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="742" priority="16">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="741" priority="17">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="740" priority="18">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="739" priority="19">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="738" priority="20">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="737" priority="21">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="736" priority="22">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="735" priority="23">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="734" priority="24">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="733" priority="25">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="732" priority="26">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="731" priority="27">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="730" priority="28">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="729" priority="29">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="728" priority="30">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="727" priority="31">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="726" priority="32">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="725" priority="33">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="724" priority="34">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="723" priority="35">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="722" priority="36">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="721" priority="37">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="720" priority="38">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="719" priority="39">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="718" priority="40">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="717" priority="41">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="716" priority="42">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="715" priority="43">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="714" priority="44">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="713" priority="45">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="712" priority="46">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="711" priority="47">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="710" priority="48">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="709" priority="49">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="708" priority="50">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="707" priority="51">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="706" priority="52">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="705" priority="53">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="704" priority="54">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="703" priority="55">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="702" priority="56">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="701" priority="57">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="700" priority="58">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="699" priority="59">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="698" priority="60">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="697" priority="61">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="696" priority="62">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="695" priority="63">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="694" priority="64">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="693" priority="65">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="692" priority="66">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="691" priority="67">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="690" priority="68">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="689" priority="69">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="688" priority="70">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="687" priority="71">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="686" priority="72">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="685" priority="73">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="684" priority="74">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="683" priority="75">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="682" priority="76">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="681" priority="77">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="680" priority="78">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="679" priority="79">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="678" priority="80">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="677" priority="81">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="676" priority="82">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="675" priority="83">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="674" priority="84">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="673" priority="85">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="672" priority="86">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="671" priority="87">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="670" priority="88">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="669" priority="9">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="668" priority="10">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="667" priority="11">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="666" priority="12">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="665" priority="13">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="664" priority="14">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="663" priority="8">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="662" priority="7">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="661" priority="6">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="660" priority="5">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="567" priority="3">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="566" priority="2">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="565" priority="1">
+    <cfRule type="expression" dxfId="659" priority="4">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="658" priority="3">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="657" priority="2">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="656" priority="1">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48963,27 +50267,27 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>31989</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -48992,10 +50296,10 @@
       <c r="C9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>36615</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -49004,12 +50308,12 @@
       <c r="C10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>37287</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -49018,12 +50322,12 @@
       <c r="C11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>37287</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -49032,12 +50336,12 @@
       <c r="C12" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>39478</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -49046,12 +50350,12 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>39538</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -49060,12 +50364,12 @@
       <c r="C14" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>39538</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -49074,12 +50378,12 @@
       <c r="C15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>39538</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -49088,12 +50392,12 @@
       <c r="C16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>39538</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -49102,12 +50406,12 @@
       <c r="C17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>41213</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -49116,12 +50420,12 @@
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>41486</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -49130,12 +50434,12 @@
       <c r="C19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>41729</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -49144,12 +50448,12 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>41759</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -49158,12 +50462,12 @@
       <c r="C21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>42094</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -49172,12 +50476,12 @@
       <c r="C22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>43221</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -49186,12 +50490,12 @@
       <c r="C23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>43221</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -49200,12 +50504,12 @@
       <c r="C24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>43221</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -49214,12 +50518,12 @@
       <c r="C25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>43221</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -49228,12 +50532,12 @@
       <c r="C26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>43647</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -49242,12 +50546,12 @@
       <c r="C27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>43709</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -49256,12 +50560,12 @@
       <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>44013</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -49270,12 +50574,12 @@
       <c r="C29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>44136</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -49284,12 +50588,12 @@
       <c r="C30" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>44197</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -49298,12 +50602,12 @@
       <c r="C31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>44256</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -49312,12 +50616,12 @@
       <c r="C32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>44317</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -49326,12 +50630,12 @@
       <c r="C33" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>44378</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -49340,12 +50644,12 @@
       <c r="C34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>44409</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -49354,8 +50658,22 @@
       <c r="C35" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>44774</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -49364,1706 +50682,1981 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD26 A30:XFD33 A37:XFD1048576 A35:XFD35">
-    <cfRule type="expression" dxfId="564" priority="617">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="563" priority="618">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="562" priority="619">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="561" priority="620">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="560" priority="621">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="559" priority="622">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="558" priority="623">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="557" priority="624">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="556" priority="625">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="555" priority="626">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="554" priority="627">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="553" priority="628">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="552" priority="629">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="551" priority="630">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="550" priority="631">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="549" priority="632">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="548" priority="633">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="547" priority="634">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="546" priority="635">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="545" priority="636">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="544" priority="637">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="543" priority="638">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="542" priority="639">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="541" priority="640">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="540" priority="641">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="539" priority="642">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="538" priority="643">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="537" priority="644">
+  <conditionalFormatting sqref="A1:XFD8 B30:XFD33 A37:XFD1048576 B35:XFD35 B9:XFD26">
+    <cfRule type="expression" dxfId="655" priority="836">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="654" priority="837">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="653" priority="838">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="652" priority="839">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="651" priority="840">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="650" priority="841">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="649" priority="842">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="648" priority="843">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="647" priority="844">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="646" priority="845">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="645" priority="846">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="644" priority="847">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="643" priority="848">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="642" priority="849">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="641" priority="850">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="640" priority="851">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="639" priority="852">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="638" priority="853">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="637" priority="854">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="636" priority="855">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="635" priority="856">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="634" priority="857">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="633" priority="858">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="632" priority="859">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="631" priority="860">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="630" priority="861">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="629" priority="862">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="628" priority="863">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:XFD29 A28:D29 E28:E30">
-    <cfRule type="expression" dxfId="536" priority="593">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="535" priority="594">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="534" priority="595">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="533" priority="596">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="532" priority="597">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="531" priority="598">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="530" priority="599">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="529" priority="600">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="528" priority="601">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="527" priority="602">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="526" priority="603">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="525" priority="604">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="524" priority="605">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="523" priority="606">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="522" priority="607">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="521" priority="608">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="520" priority="609">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="519" priority="610">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="518" priority="611">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="517" priority="612">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="516" priority="613">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="515" priority="614">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="514" priority="615">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="513" priority="616">
+  <conditionalFormatting sqref="F28:XFD29 B28:D29 E28:E30">
+    <cfRule type="expression" dxfId="627" priority="812">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="626" priority="813">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="625" priority="814">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="624" priority="815">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="623" priority="816">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="622" priority="817">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="621" priority="818">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="620" priority="819">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="619" priority="820">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="618" priority="821">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="617" priority="822">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="616" priority="823">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="615" priority="824">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="614" priority="825">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="613" priority="826">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="612" priority="827">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="611" priority="828">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="610" priority="829">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="609" priority="830">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="608" priority="831">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="607" priority="832">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="606" priority="833">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="605" priority="834">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="604" priority="835">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD26 A28:XFD33 A37:XFD1048576 A35:XFD35">
-    <cfRule type="expression" dxfId="512" priority="539">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="511" priority="540">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="510" priority="541">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="542">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="543">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="544">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="506" priority="545">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="546">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="547">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="548">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="549">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="550">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="500" priority="551">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="552">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="498" priority="553">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="554">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="496" priority="555">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="556">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="494" priority="557">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="558">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="559">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="560">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="490" priority="561">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="562">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="488" priority="563">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="564">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="486" priority="565">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="566">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="567">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="568">
+  <conditionalFormatting sqref="A1:XFD8 B28:XFD33 A37:XFD1048576 B35:XFD35 B9:XFD26">
+    <cfRule type="expression" dxfId="603" priority="758">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="602" priority="759">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="601" priority="760">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="600" priority="761">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="599" priority="762">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="598" priority="763">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="597" priority="764">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="596" priority="765">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="595" priority="766">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="594" priority="767">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="593" priority="768">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="592" priority="769">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="591" priority="770">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="590" priority="771">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="589" priority="772">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="588" priority="773">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="587" priority="774">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="586" priority="775">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="585" priority="776">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="584" priority="777">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="583" priority="778">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="582" priority="779">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="581" priority="780">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="580" priority="781">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="579" priority="782">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="578" priority="783">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="577" priority="784">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="576" priority="785">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="575" priority="786">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="574" priority="787">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:D27 F27:XFD27">
-    <cfRule type="expression" dxfId="482" priority="460">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="461">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="462">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="463">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="464">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="465">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="466">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="467">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="468">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="469">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="470">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="471">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="470" priority="472">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="473">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="474">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="475">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="476">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="477">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="478">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="479">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="462" priority="480">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="481">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="482">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="483">
+  <conditionalFormatting sqref="B27:D27 F27:XFD27">
+    <cfRule type="expression" dxfId="573" priority="679">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="572" priority="680">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="571" priority="681">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="570" priority="682">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="569" priority="683">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="568" priority="684">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="567" priority="685">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="566" priority="686">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="565" priority="687">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="564" priority="688">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="563" priority="689">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="562" priority="690">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="561" priority="691">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="560" priority="692">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="559" priority="693">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="558" priority="694">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="557" priority="695">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="556" priority="696">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="555" priority="697">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="554" priority="698">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="553" priority="699">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="552" priority="700">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="551" priority="701">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="550" priority="702">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="458" priority="436">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="437">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="456" priority="438">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="439">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="454" priority="440">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="441">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="452" priority="442">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="443">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="450" priority="444">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="445">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="448" priority="446">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="447">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="446" priority="448">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="449">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="444" priority="450">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="451">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="442" priority="452">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="453">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="440" priority="454">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="455">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="438" priority="456">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="457">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="436" priority="458">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="459">
+    <cfRule type="expression" dxfId="549" priority="655">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="548" priority="656">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="547" priority="657">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="546" priority="658">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="545" priority="659">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="544" priority="660">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="543" priority="661">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="542" priority="662">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="541" priority="663">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="540" priority="664">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="539" priority="665">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="538" priority="666">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="537" priority="667">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="536" priority="668">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="535" priority="669">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="534" priority="670">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="533" priority="671">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="532" priority="672">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="531" priority="673">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="530" priority="674">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="529" priority="675">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="528" priority="676">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="527" priority="677">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="526" priority="678">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD27">
-    <cfRule type="expression" dxfId="434" priority="406">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="407">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="432" priority="408">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="409">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="430" priority="410">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="429" priority="411">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="428" priority="412">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="427" priority="413">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="426" priority="414">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="425" priority="415">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="424" priority="416">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="423" priority="417">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="422" priority="418">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="421" priority="419">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="420" priority="420">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="419" priority="421">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="418" priority="422">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="417" priority="423">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="416" priority="424">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="415" priority="425">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="414" priority="426">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="413" priority="427">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="412" priority="428">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="411" priority="429">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="410" priority="430">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="409" priority="431">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="408" priority="432">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="407" priority="433">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="406" priority="434">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="405" priority="435">
+  <conditionalFormatting sqref="B27:XFD27">
+    <cfRule type="expression" dxfId="525" priority="625">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="524" priority="626">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="523" priority="627">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="522" priority="628">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="521" priority="629">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="520" priority="630">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="519" priority="631">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="518" priority="632">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="517" priority="633">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="516" priority="634">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="515" priority="635">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="514" priority="636">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="513" priority="637">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="512" priority="638">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="511" priority="639">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="510" priority="640">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="509" priority="641">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="508" priority="642">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="507" priority="643">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="506" priority="644">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="505" priority="645">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="504" priority="646">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="503" priority="647">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="502" priority="648">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="501" priority="649">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="500" priority="650">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="499" priority="651">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="498" priority="652">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="497" priority="653">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="496" priority="654">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD33 A37:XFD1048576 A35:XFD35">
-    <cfRule type="expression" dxfId="404" priority="215">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="403" priority="216">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="402" priority="217">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="401" priority="218">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="400" priority="219">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="399" priority="220">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="398" priority="221">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="397" priority="222">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="396" priority="223">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="395" priority="224">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="394" priority="225">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="393" priority="226">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="392" priority="227">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="391" priority="228">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="390" priority="229">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="389" priority="230">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="388" priority="231">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="387" priority="256">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="386" priority="257">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="385" priority="258">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="384" priority="259">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="383" priority="260">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="382" priority="261">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="381" priority="262">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="380" priority="263">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="379" priority="264">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="378" priority="265">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="377" priority="266">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="376" priority="291">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="375" priority="394">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="374" priority="395">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="373" priority="396">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="372" priority="397">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="371" priority="402">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="370" priority="403">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="369" priority="404">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="368" priority="405">
+  <conditionalFormatting sqref="A1:XFD8 A37:XFD1048576 B35:XFD35 B9:XFD33">
+    <cfRule type="expression" dxfId="495" priority="434">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="494" priority="435">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="493" priority="436">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="492" priority="437">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="491" priority="438">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="490" priority="439">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="489" priority="440">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="488" priority="441">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="487" priority="442">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="486" priority="443">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="485" priority="444">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="484" priority="445">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="483" priority="446">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="482" priority="447">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="481" priority="448">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="480" priority="449">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="479" priority="450">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="478" priority="475">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="477" priority="476">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="476" priority="477">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="475" priority="478">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="474" priority="479">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="473" priority="480">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="472" priority="481">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="471" priority="482">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="470" priority="483">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="469" priority="484">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="468" priority="485">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="467" priority="510">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="466" priority="613">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="465" priority="614">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="464" priority="615">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="463" priority="616">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="462" priority="621">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="461" priority="622">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="460" priority="623">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="459" priority="624">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD26">
-    <cfRule type="expression" dxfId="367" priority="398">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="366" priority="399">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="365" priority="400">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="364" priority="401">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="363" priority="370">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="362" priority="371">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="361" priority="372">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="360" priority="373">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="359" priority="374">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="358" priority="375">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="357" priority="376">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="356" priority="377">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="355" priority="378">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="354" priority="379">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="353" priority="380">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="352" priority="381">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="351" priority="382">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="350" priority="383">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="349" priority="384">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="348" priority="385">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="347" priority="386">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="346" priority="387">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="345" priority="388">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="344" priority="389">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="343" priority="390">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="342" priority="391">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="341" priority="392">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="340" priority="393">
+  <conditionalFormatting sqref="A1:XFD8 B9:XFD26">
+    <cfRule type="expression" dxfId="458" priority="617">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="457" priority="618">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="456" priority="619">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="455" priority="620">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="339" priority="316">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="338" priority="317">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="337" priority="318">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="336" priority="319">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="335" priority="320">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="334" priority="321">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="333" priority="322">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="332" priority="323">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="331" priority="324">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="330" priority="325">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="329" priority="326">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="328" priority="327">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="327" priority="328">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="329">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="330">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="331">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="332">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="333">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="334">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="335">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="336">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="337">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="338">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="339">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="340">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="314" priority="341">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="342">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="343">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="344">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="345">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="346">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="347">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="307" priority="348">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="349">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="350">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="351">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="352">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="353">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="354">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="355">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="356">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="357">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="358">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="359">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="360">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="361">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="362">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="363">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="364">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="365">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="366">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="367">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="368">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="369">
+    <cfRule type="expression" dxfId="454" priority="535">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="453" priority="536">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="452" priority="537">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="451" priority="538">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="450" priority="539">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="449" priority="540">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="448" priority="541">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="447" priority="542">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="446" priority="543">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="445" priority="544">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="444" priority="545">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="443" priority="546">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="442" priority="547">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="441" priority="548">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="440" priority="549">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="439" priority="550">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="438" priority="551">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="437" priority="552">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="436" priority="553">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="435" priority="554">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="434" priority="555">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="433" priority="556">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="432" priority="557">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="431" priority="558">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="430" priority="559">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="429" priority="560">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="428" priority="561">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="427" priority="562">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="426" priority="563">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="425" priority="564">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="424" priority="565">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="423" priority="566">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="422" priority="567">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="421" priority="568">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="420" priority="569">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="419" priority="570">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="418" priority="571">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="417" priority="572">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="416" priority="573">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="574">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="414" priority="575">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="413" priority="576">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="577">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="578">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="579">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="409" priority="580">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="408" priority="581">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="407" priority="582">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="406" priority="583">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="405" priority="584">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="404" priority="585">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="403" priority="586">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="402" priority="587">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="401" priority="588">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="285" priority="292">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="293">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="294">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="295">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="296">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="297">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="298">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="299">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="300">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="301">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="302">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="303">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="304">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="305">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="306">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="307">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="308">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="309">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="310">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="311">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="312">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="313">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="314">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="315">
+    <cfRule type="expression" dxfId="400" priority="511">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="399" priority="512">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="398" priority="513">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="397" priority="514">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="396" priority="515">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="395" priority="516">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="394" priority="517">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="393" priority="518">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="392" priority="519">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="391" priority="520">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="390" priority="521">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="389" priority="522">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="388" priority="523">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="387" priority="524">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="386" priority="525">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="385" priority="526">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="384" priority="527">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="383" priority="528">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="382" priority="529">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="381" priority="530">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="380" priority="531">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="379" priority="532">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="378" priority="533">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="377" priority="534">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="261" priority="267">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="268">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="269">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="270">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="271">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="272">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="273">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="274">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="275">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="276">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="277">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="278">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="279">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="280">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="281">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="282">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="283">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="284">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="285">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="286">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="287">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="288">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="289">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="290">
+    <cfRule type="expression" dxfId="376" priority="486">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="487">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="488">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="489">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="490">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="491">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="492">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="493">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="368" priority="494">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="495">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="496">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="497">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="498">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="499">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="500">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="501">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="360" priority="502">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="503">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="504">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="505">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="506">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="507">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="508">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="509">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="237" priority="232">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="233">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="234">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="235">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="236">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="237">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="238">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="239">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="240">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="241">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="242">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="243">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="244">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="245">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="246">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="247">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="221" priority="248">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="249">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="250">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="251">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="252">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="253">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="254">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="255">
+    <cfRule type="expression" dxfId="352" priority="451">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="452">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="453">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="454">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="455">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="456">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="457">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="458">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="344" priority="459">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="460">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="461">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="462">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="463">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="464">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="465">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="466">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="336" priority="467">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="468">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="469">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="470">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="471">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="472">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="473">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="474">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:XFD34">
-    <cfRule type="expression" dxfId="213" priority="117">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="118">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="119">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="120">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="121">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="122">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="123">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="124">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="205" priority="125">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="126">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="127">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="128">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="129">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="130">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="131">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="132">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="133">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="134">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="135">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="136">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="137">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="138">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="139">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="140">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="141">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="142">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="143">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="144">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="145">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="146">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="147">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="148">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="149">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="150">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="151">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="152">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="153">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="154">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="155">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="156">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="157">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="158">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="159">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="160">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="161">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="162">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="163">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="164">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="165">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="166">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="167">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="168">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="169">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="170">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="171">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="172">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="173">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="174">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="175">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="176">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="177">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="178">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="179">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="180">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="181">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="182">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="183">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="184">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="185">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="186">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="187">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="188">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="189">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="190">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="191">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="192">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="193">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="194">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="195">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="196">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="197">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="198">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="199">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="200">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="201">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="202">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="203">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="204">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="205">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="206">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="207">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="208">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="209">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="210">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="211">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="212">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="213">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="214">
+  <conditionalFormatting sqref="B34:XFD34">
+    <cfRule type="expression" dxfId="328" priority="336">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="337">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="338">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="339">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="340">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="341">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="342">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="343">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="320" priority="344">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="345">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="346">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="347">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="348">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="349">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="350">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="351">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="352">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="353">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="354">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="355">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="356">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="357">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="358">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="359">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="360">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="361">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="362">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="363">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="364">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="365">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="366">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="367">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="368">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="369">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="370">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="371">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="372">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="373">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="374">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="375">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="376">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="287" priority="377">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="378">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="285" priority="379">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="380">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="283" priority="381">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="382">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="383">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="384">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="385">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="386">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="387">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="388">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="389">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="390">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="391">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="392">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="393">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="394">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="395">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="396">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="397">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="398">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="399">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="400">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="401">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="402">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="403">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="404">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="405">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="406">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="407">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="408">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="409">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="410">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="411">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="412">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="413">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="414">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="415">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="416">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="417">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="418">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="419">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="420">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="421">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="422">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="423">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="424">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="425">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="426">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="427">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="428">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="429">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="430">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="431">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="432">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="433">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:XFD1048576 A1:XFD35">
-    <cfRule type="expression" dxfId="115" priority="114">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="115">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="116">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="108">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="109">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="110">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="111">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="112">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="113">
+  <conditionalFormatting sqref="A37:XFD1048576 A1:XFD8 B9:XFD35">
+    <cfRule type="expression" dxfId="230" priority="333">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="334">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="335">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="327">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="328">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="329">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="330">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="331">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="332">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="expression" dxfId="106" priority="80">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="81">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="82">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="83">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="84">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="85">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="86">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="87">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="88">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="89">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="90">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="91">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="94">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="95">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="97">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="98">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="99">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="100">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="101">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="102">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="103">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="104">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="105">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="106">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="107">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="50">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="51">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="52">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="53">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="54">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="55">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="56">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="57">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="58">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="59">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="60">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="61">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="62">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="63">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="64">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="65">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="67">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="69">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="70">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="71">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="72">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="73">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="74">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="75">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="76">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="77">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="78">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="79">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="13">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="14">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="15">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="16">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="17">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="18">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="19">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="20">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="21">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="22">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="23">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="24">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="25">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="26">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="27">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="29">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="30">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="32">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="34">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="37">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="38">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="39">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="41">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="42">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="43">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="44">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="45">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="46">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="47">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="48">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="49">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+  <conditionalFormatting sqref="B36:XFD36">
+    <cfRule type="expression" dxfId="221" priority="299">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="300">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="301">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="302">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="303">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="304">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="305">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="306">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="307">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="308">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="309">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="310">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="311">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="312">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="313">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="314">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="315">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="316">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="317">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="318">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="319">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="320">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="321">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="322">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="197" priority="323">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="324">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="325">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="326">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="269">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="270">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="271">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="272">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="273">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="274">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="275">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="276">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="277">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="278">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="279">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="280">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="281">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="282">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="283">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="284">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="285">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="286">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="287">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="288">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="289">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="290">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="291">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="292">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="293">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="294">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="295">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="296">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="297">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="298">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="232">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="233">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="234">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="235">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="236">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="237">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="238">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="239">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="240">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="241">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="242">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="243">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="244">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="245">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="246">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="247">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="248">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="249">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="250">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="251">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="252">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="253">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="254">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="255">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="256">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="257">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="258">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="259">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="260">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="261">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="262">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="263">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="264">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="265">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="266">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="267">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="268">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="229">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="230">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="231">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="223">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="224">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="225">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="226">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="227">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="228">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD8 A37:XFD1048576 B9:XFD36">
+    <cfRule type="expression" dxfId="117" priority="222">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="221">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="220">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="219">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A36">
+    <cfRule type="expression" dxfId="113" priority="51">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="52">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="53">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="54">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="91">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="92">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="93">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="94">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="95">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="96">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="97">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="98">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="99">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="100">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="101">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="102">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="105">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="107">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="108">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="109">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="110">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="111">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="112">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="113">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="114">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="59">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="60">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="61">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="62">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="63">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="64">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="65">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="66">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="67">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="68">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="69">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="70">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="71">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="72">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="73">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="74">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="75">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="76">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="77">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="78">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="79">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="80">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="81">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="82">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="83">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="84">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="85">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="86">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="87">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="88">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="89">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="90">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="9">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="10">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="11">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="12">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="13">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="14">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="15">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="16">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="17">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="18">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="19">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="20">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="21">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="22">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="23">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="24">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="25">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="26">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="27">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="28">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="29">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="37">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="38">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="39">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="40">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="41">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="42">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="43">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="44">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="45">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="46">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="47">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="48">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="49">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="50">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="55">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="56">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="57">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="58">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="5">
@@ -51076,13 +52669,13 @@
       <formula>1&lt;&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="8">
-      <formula>1&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>1&lt;&gt;0</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>1&lt;&gt;0</formula>
     </cfRule>
